--- a/Elétrica/Lista de Materiais(BOM).xlsx
+++ b/Elétrica/Lista de Materiais(BOM).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4cfb557e28084b1c/Documentos/Faculdade/6 Semestre/SEMB1/PRJ-SEMB/Elétrica/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36B159E4-49E8-4638-A08E-99050CC0B777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{36B159E4-49E8-4638-A08E-99050CC0B777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DA7D278-3614-4415-A9E8-3B59EB7EC181}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{182C51EA-75E5-4D85-8150-F37F781F8B93}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{182C51EA-75E5-4D85-8150-F37F781F8B93}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
   <si>
     <t>Amplificador instrumental AD623</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>Capacitor de 4.7uF</t>
-  </si>
-  <si>
-    <t>Capacitor de 1uF (Polarizado)</t>
   </si>
   <si>
     <t>Capacitor de 330nF</t>
@@ -264,12 +261,18 @@
   <si>
     <t>Materiais utilizados</t>
   </si>
+  <si>
+    <t>Capacitor_SMD:CP_Elec_3x5.3</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:C_0805_2012Metric_Pad1.18x1.45mm_HandSolder</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,6 +305,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -560,7 +570,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -580,24 +590,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -636,6 +628,27 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -953,424 +966,424 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C203187-041C-4369-9C32-1453732B6295}">
   <dimension ref="B1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="53.21875" customWidth="1"/>
-    <col min="4" max="4" width="83.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="53.28515625" customWidth="1"/>
+    <col min="4" max="4" width="83.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="11"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="12"/>
-    </row>
-    <row r="4" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="13" t="s">
+    <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="22"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25"/>
+    </row>
+    <row r="4" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="15">
+    </row>
+    <row r="5" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="9">
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="17">
+      <c r="D5" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="11">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="13">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="19">
-        <v>2</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="17">
+      <c r="D7" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="11">
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="19">
+      <c r="D8" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="13">
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="17">
+        <v>33</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="11">
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="13">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="11">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="19">
+    <row r="14" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="11">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="13">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="11">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="17">
+      <c r="D16" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="13">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="11">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="13">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="11">
         <v>2</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="19">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="D20" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="13">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="11">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="13">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="11">
+        <v>1</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="13">
+        <v>7</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="11">
+        <v>3</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="13">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="11">
         <v>4</v>
       </c>
-      <c r="D13" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B14" s="17">
-        <v>1</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B15" s="19">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B16" s="17">
-        <v>1</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="19">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B18" s="17">
-        <v>1</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="19">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B20" s="17">
-        <v>2</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B21" s="19">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B22" s="17">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B23" s="19">
-        <v>2</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B24" s="17">
-        <v>1</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B25" s="19">
-        <v>7</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="20" t="s">
+      <c r="C28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="17">
-        <v>3</v>
-      </c>
-      <c r="C26" s="4" t="s">
+    <row r="29" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="13">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="11">
+        <v>4</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="13">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B27" s="19">
-        <v>1</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B28" s="17">
-        <v>4</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="22" t="s">
+      <c r="D31" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="11">
+        <v>1</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B29" s="19">
-        <v>1</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B30" s="17">
-        <v>4</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B31" s="19">
-        <v>1</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B32" s="17">
-        <v>1</v>
-      </c>
-      <c r="C32" s="4" t="s">
+    <row r="33" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="13">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D33" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="11">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B33" s="19">
-        <v>1</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B34" s="17">
-        <v>1</v>
-      </c>
-      <c r="C34" s="2" t="s">
+    <row r="35" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="13">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D35" s="14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B35" s="19">
-        <v>1</v>
-      </c>
-      <c r="C35" s="1" t="s">
+    <row r="36" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="11">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="D36" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B36" s="17">
-        <v>1</v>
-      </c>
-      <c r="C36" s="2" t="s">
+    <row r="37" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="13">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="D37" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="11">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B37" s="19">
-        <v>1</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B38" s="17">
-        <v>1</v>
-      </c>
-      <c r="C38" s="2" t="s">
+    <row r="39" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="17">
+        <v>1</v>
+      </c>
+      <c r="C39" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D39" s="19" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="23">
-        <v>1</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D39" s="25" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Elétrica/Lista de Materiais(BOM).xlsx
+++ b/Elétrica/Lista de Materiais(BOM).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4cfb557e28084b1c/Documentos/Faculdade/6 Semestre/SEMB1/PRJ-SEMB/Elétrica/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{36B159E4-49E8-4638-A08E-99050CC0B777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DA7D278-3614-4415-A9E8-3B59EB7EC181}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{36B159E4-49E8-4638-A08E-99050CC0B777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A91FA69A-5968-4009-BB97-A258269857D6}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{182C51EA-75E5-4D85-8150-F37F781F8B93}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{182C51EA-75E5-4D85-8150-F37F781F8B93}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -272,7 +272,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,6 +312,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -570,7 +578,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -629,6 +637,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -647,9 +658,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -665,6 +674,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -964,10 +977,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C203187-041C-4369-9C32-1453732B6295}">
-  <dimension ref="B1:D39"/>
+  <dimension ref="B1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,16 +992,16 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
     </row>
     <row r="4" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
@@ -1133,7 +1146,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="13">
         <v>1</v>
       </c>
@@ -1144,7 +1157,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="11">
         <v>1</v>
       </c>
@@ -1155,7 +1168,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="13">
         <v>1</v>
       </c>
@@ -1166,7 +1179,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
         <v>2</v>
       </c>
@@ -1177,18 +1190,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="13">
         <v>1</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
         <v>1</v>
       </c>
@@ -1199,7 +1212,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="13">
         <v>2</v>
       </c>
@@ -1210,9 +1223,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>12</v>
@@ -1221,7 +1234,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="13">
         <v>7</v>
       </c>
@@ -1232,7 +1245,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="11">
         <v>3</v>
       </c>
@@ -1243,7 +1256,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="13">
         <v>1</v>
       </c>
@@ -1254,7 +1267,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="11">
         <v>4</v>
       </c>
@@ -1264,8 +1277,9 @@
       <c r="D28" s="16" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K28" s="27"/>
+    </row>
+    <row r="29" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="13">
         <v>1</v>
       </c>
@@ -1276,9 +1290,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>40</v>
@@ -1287,7 +1301,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="13">
         <v>1</v>
       </c>
@@ -1298,7 +1312,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="11">
         <v>1</v>
       </c>
